--- a/data/trans_camb/P74B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 11,46</t>
+          <t>2,55; 11,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 11,11</t>
+          <t>1,84; 11,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,09; -4,42</t>
+          <t>-12,96; -3,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,11; -4,35</t>
+          <t>-14,2; -4,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 9,53</t>
+          <t>0,67; 9,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 9,7</t>
+          <t>1,31; 10,22</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,41; 103,46</t>
+          <t>16,47; 104,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,67; 99,36</t>
+          <t>12,02; 103,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -5,12</t>
+          <t>-14,41; -4,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,43; -4,97</t>
+          <t>-15,61; -5,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 22,26</t>
+          <t>1,46; 22,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 22,82</t>
+          <t>2,77; 22,84</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,96</t>
+          <t>1,85; 6,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 8,43</t>
+          <t>3,59; 8,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,46; -5,78</t>
+          <t>-25,67; -5,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,01; -0,65</t>
+          <t>-19,72; -0,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 9,63</t>
+          <t>2,75; 9,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,01; 13,82</t>
+          <t>6,26; 13,69</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,12; 403,2</t>
+          <t>43,79; 377,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,73; 451,86</t>
+          <t>87,51; 477,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,08; -10,52</t>
+          <t>-37,11; -9,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,35; -1,23</t>
+          <t>-27,52; -0,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,7; 82,11</t>
+          <t>18,08; 82,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,5; 120,55</t>
+          <t>40,25; 117,52</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 15,66</t>
+          <t>-3,25; 14,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 14,31</t>
+          <t>0,72; 14,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-48,13; 0,87</t>
+          <t>-46,9; 2,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-57,96; -10,11</t>
+          <t>-54,84; -9,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 20,47</t>
+          <t>1,15; 19,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 16,98</t>
+          <t>-0,9; 16,2</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,13; 439,69</t>
+          <t>-47,32; 404,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 450,14</t>
+          <t>-2,81; 429,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,81; 0,46</t>
+          <t>-51,37; 1,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-61,81; -17,77</t>
+          <t>-60,02; -15,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 188,89</t>
+          <t>5,9; 184,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 161,28</t>
+          <t>-4,57; 154,71</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,7</t>
+          <t>2,64; 7,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,23</t>
+          <t>2,75; 7,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -10,15</t>
+          <t>-19,32; -10,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,06; -11,76</t>
+          <t>-20,91; -11,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,07</t>
+          <t>1,56; 7,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,68</t>
+          <t>0,65; 6,36</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30,14; 116,22</t>
+          <t>30,22; 109,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,22; 111,35</t>
+          <t>30,78; 105,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -12,58</t>
+          <t>-22,71; -12,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,85; -14,58</t>
+          <t>-24,48; -14,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,87; 24,5</t>
+          <t>5,04; 24,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,43; 23,29</t>
+          <t>1,83; 21,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P74B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 11,79</t>
+          <t>2,63; 11,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 11,36</t>
+          <t>1,91; 11,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,96; -3,81</t>
+          <t>-12,9; -3,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,2; -4,57</t>
+          <t>-14,17; -4,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 9,62</t>
+          <t>0,65; 9,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 10,22</t>
+          <t>0,83; 9,91</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,47; 104,62</t>
+          <t>16,66; 101,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,02; 103,71</t>
+          <t>11,88; 100,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -4,54</t>
+          <t>-14,16; -4,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,61; -5,29</t>
+          <t>-15,8; -5,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 22,46</t>
+          <t>1,39; 21,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 22,84</t>
+          <t>1,67; 22,94</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,88</t>
+          <t>1,92; 6,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,64</t>
+          <t>3,76; 8,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,67; -5,4</t>
+          <t>-24,69; -5,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,72; -0,48</t>
+          <t>-19,55; -0,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 9,66</t>
+          <t>2,61; 10,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 13,69</t>
+          <t>6,3; 13,46</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,79; 377,9</t>
+          <t>42,49; 356,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,51; 477,99</t>
+          <t>88,98; 451,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,11; -9,82</t>
+          <t>-35,87; -8,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,52; -0,74</t>
+          <t>-27,9; -0,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,08; 82,04</t>
+          <t>15,97; 85,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,25; 117,52</t>
+          <t>40,7; 117,34</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 14,55</t>
+          <t>-1,87; 15,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 14,86</t>
+          <t>0,16; 14,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 2,65</t>
+          <t>-46,56; -1,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-54,84; -9,15</t>
+          <t>-53,43; -9,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 19,78</t>
+          <t>-0,14; 19,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 16,2</t>
+          <t>-0,62; 17,14</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,32; 404,57</t>
+          <t>-29,43; 414,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 429,2</t>
+          <t>-9,17; 410,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,37; 1,67</t>
+          <t>-51,97; -4,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,02; -15,5</t>
+          <t>-59,41; -17,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,9; 184,45</t>
+          <t>-1,35; 184,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 154,71</t>
+          <t>-5,67; 161,99</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,33</t>
+          <t>2,93; 7,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 7,1</t>
+          <t>2,6; 6,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,32; -10,06</t>
+          <t>-19,04; -10,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,91; -11,89</t>
+          <t>-20,78; -12,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,56; 7,14</t>
+          <t>1,72; 7,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,36</t>
+          <t>0,88; 6,35</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30,22; 109,18</t>
+          <t>34,3; 118,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30,78; 105,59</t>
+          <t>31,24; 105,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,71; -12,51</t>
+          <t>-22,3; -12,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,48; -14,64</t>
+          <t>-24,47; -14,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,04; 24,55</t>
+          <t>5,43; 27,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,83; 21,79</t>
+          <t>2,74; 21,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P74B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 11,26</t>
+          <t>2,47; 11,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 11,38</t>
+          <t>1,73; 11,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,9; -3,85</t>
+          <t>-13,09; -4,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,17; -4,42</t>
+          <t>-14,11; -4,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 9,13</t>
+          <t>0,57; 9,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 9,91</t>
+          <t>0,47; 9,7</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,66; 101,41</t>
+          <t>16,41; 103,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,88; 100,42</t>
+          <t>12,67; 99,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -4,55</t>
+          <t>-14,51; -5,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,8; -5,24</t>
+          <t>-15,43; -4,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 21,34</t>
+          <t>1,21; 22,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 22,94</t>
+          <t>1,05; 22,82</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 6,88</t>
+          <t>1,85; 6,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 8,46</t>
+          <t>3,61; 8,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,69; -5,19</t>
+          <t>-25,46; -5,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,55; -0,43</t>
+          <t>-20,01; -0,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 10,0</t>
+          <t>2,72; 9,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 13,46</t>
+          <t>7,01; 13,82</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,49; 356,27</t>
+          <t>45,12; 403,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,98; 451,68</t>
+          <t>82,73; 451,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,87; -8,98</t>
+          <t>-37,08; -10,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,9; -0,49</t>
+          <t>-28,35; -1,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,97; 85,34</t>
+          <t>17,7; 82,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,7; 117,34</t>
+          <t>44,5; 120,55</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 15,54</t>
+          <t>-2,02; 15,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 14,78</t>
+          <t>-0,28; 14,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-46,56; -1,51</t>
+          <t>-48,13; 0,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-53,43; -9,89</t>
+          <t>-57,96; -10,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 19,11</t>
+          <t>0,65; 20,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 17,14</t>
+          <t>0,49; 16,98</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,43; 414,78</t>
+          <t>-35,13; 439,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 410,76</t>
+          <t>-7,84; 450,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,97; -4,53</t>
+          <t>-51,81; 0,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,41; -17,3</t>
+          <t>-61,81; -17,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 184,99</t>
+          <t>-0,8; 188,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 161,99</t>
+          <t>-1,29; 161,28</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,93; 7,55</t>
+          <t>2,67; 7,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,6; 6,99</t>
+          <t>2,77; 7,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -10,33</t>
+          <t>-19,22; -10,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,78; -12,06</t>
+          <t>-21,06; -11,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,77</t>
+          <t>1,6; 7,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 6,35</t>
+          <t>0,74; 6,68</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>34,3; 118,29</t>
+          <t>30,14; 116,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,24; 105,17</t>
+          <t>31,22; 111,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,3; -12,79</t>
+          <t>-22,67; -12,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,47; -14,84</t>
+          <t>-24,85; -14,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,43; 27,16</t>
+          <t>4,87; 24,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,74; 21,68</t>
+          <t>2,43; 23,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P74B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 11,46</t>
+          <t>2,73; 11,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 11,11</t>
+          <t>1,7; 11,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,09; -4,42</t>
+          <t>-13,04; -3,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,11; -4,35</t>
+          <t>-14,01; -4,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 9,53</t>
+          <t>0,46; 8,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 9,7</t>
+          <t>0,75; 9,56</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,41; 103,46</t>
+          <t>18,97; 103,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,67; 99,36</t>
+          <t>10,14; 96,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -5,12</t>
+          <t>-14,51; -4,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,43; -4,97</t>
+          <t>-15,72; -5,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 22,26</t>
+          <t>1,01; 20,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 22,82</t>
+          <t>1,51; 21,96</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,96</t>
+          <t>1,44; 6,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 8,43</t>
+          <t>3,37; 8,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,46; -5,78</t>
+          <t>-24,71; -5,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,01; -0,65</t>
+          <t>-18,72; -0,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 9,63</t>
+          <t>2,69; 9,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,01; 13,82</t>
+          <t>6,71; 13,96</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,12; 403,2</t>
+          <t>32,17; 330,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,73; 451,86</t>
+          <t>76,45; 459,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,08; -10,52</t>
+          <t>-36,06; -9,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,35; -1,23</t>
+          <t>-27,13; -0,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,7; 82,11</t>
+          <t>17,13; 85,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,5; 120,55</t>
+          <t>43,39; 120,69</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 15,66</t>
+          <t>-2,96; 14,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 14,31</t>
+          <t>-0,06; 14,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-48,13; 0,87</t>
+          <t>-47,19; -1,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-57,96; -10,11</t>
+          <t>-55,03; -10,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 20,47</t>
+          <t>0,72; 19,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 16,98</t>
+          <t>0,27; 16,97</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,13; 439,69</t>
+          <t>-39,96; 487,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 450,14</t>
+          <t>-15,21; 399,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,81; 0,46</t>
+          <t>-51,46; -3,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-61,81; -17,77</t>
+          <t>-60,64; -16,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 188,89</t>
+          <t>2,78; 179,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 161,28</t>
+          <t>-0,4; 157,92</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,7</t>
+          <t>2,75; 7,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,23</t>
+          <t>2,47; 7,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -10,15</t>
+          <t>-19,0; -10,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,06; -11,76</t>
+          <t>-21,1; -11,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,07</t>
+          <t>1,81; 7,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,68</t>
+          <t>0,75; 6,6</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30,14; 116,22</t>
+          <t>30,94; 114,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,22; 111,35</t>
+          <t>29,14; 113,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -12,58</t>
+          <t>-22,32; -12,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,85; -14,58</t>
+          <t>-25,05; -15,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,87; 24,5</t>
+          <t>5,72; 25,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,43; 23,29</t>
+          <t>2,47; 22,82</t>
         </is>
       </c>
     </row>
